--- a/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m60 rev2.3.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.3/BOM-speeduino v0.4.3 compatible PCB for m60 rev2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861F848-A828-4ADA-AD1F-8BFFEBD2A908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618C875-267D-4FD8-8492-752064866CCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="780" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="735" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -1104,9 +1104,6 @@
     <t>Q1,Q2,Q3,Q4</t>
   </si>
   <si>
-    <t>IC1,IC2</t>
-  </si>
-  <si>
     <t>R9,R12,R15,R18</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
   </si>
   <si>
     <t>538-43045-1600</t>
-  </si>
-  <si>
-    <t>C1,C3,C5,C7,C9,C13,C15,C29,C22,C21</t>
   </si>
   <si>
     <r>
@@ -1256,6 +1250,12 @@
       </rPr>
       <t>D20</t>
     </r>
+  </si>
+  <si>
+    <t>IC2,IC5</t>
+  </si>
+  <si>
+    <t>C1,C3,C5,C7,C9,C13,C15,C21,C22,C29</t>
   </si>
 </sst>
 </file>
@@ -2044,8 +2044,8 @@
   </sheetPr>
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2862,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3174,10 +3174,10 @@
         <v>183</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3185,13 +3185,13 @@
         <v>185</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
@@ -3786,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="12">
         <v>680</v>
@@ -3848,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="3">
         <v>470</v>
@@ -3908,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>158</v>
@@ -4032,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" s="3">
         <v>150</v>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
@@ -4547,10 +4547,10 @@
         <v>123</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>239</v>
@@ -4560,13 +4560,13 @@
         <v>152</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K46" s="6">
         <v>2.4</v>
@@ -4750,10 +4750,10 @@
         <v>217</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12"/>
@@ -4761,13 +4761,13 @@
         <v>185</v>
       </c>
       <c r="H51" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="K51" s="6">
         <v>0.33</v>
@@ -4812,7 +4812,7 @@
         <v>219</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -4820,13 +4820,13 @@
         <v>185</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="K52" s="6">
         <v>0.16</v>
